--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Week 47" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="32">
   <si>
     <t>Logboek</t>
   </si>
@@ -105,6 +105,21 @@
   </si>
   <si>
     <t>Nieuwe game aangemaakt</t>
+  </si>
+  <si>
+    <t>Project op github gezet</t>
+  </si>
+  <si>
+    <t>Gamenaam gewijzigd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoogte en Breedte aangepast van het canvas </t>
+  </si>
+  <si>
+    <t>icoon Toegevoegd</t>
+  </si>
+  <si>
+    <t>Het spel laten stoppen en achtergrondkleur toegevoegd</t>
   </si>
 </sst>
 </file>
@@ -515,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,15 +719,21 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.4861111111111111</v>
+      </c>
       <c r="E13" s="1">
         <v>6</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="G13" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.777777777777779E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -840,7 +861,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="14"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="1">
@@ -854,7 +875,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="14"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="1">
@@ -868,7 +889,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="14"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="1">
@@ -882,7 +903,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1">
@@ -896,7 +917,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
@@ -919,7 +940,7 @@
       </c>
       <c r="G28" s="11">
         <f>SUM(G8:G27)</f>
-        <v>0.14444444444444449</v>
+        <v>0.17222222222222228</v>
       </c>
     </row>
   </sheetData>
@@ -1362,7 +1383,7 @@
       </c>
       <c r="B7" s="5">
         <f>'Week 47'!G28</f>
-        <v>0.14444444444444449</v>
+        <v>0.17222222222222228</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1452,7 +1473,7 @@
       </c>
       <c r="B17" s="16">
         <f>SUM(B7:B16)</f>
-        <v>0.14444444444444449</v>
+        <v>0.17222222222222228</v>
       </c>
     </row>
   </sheetData>
@@ -1465,7 +1486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -1474,7 +1495,7 @@
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="6" max="6" width="52.85546875" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1546,58 +1567,84 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="10">
+        <v>41603</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.49027777777777781</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.50069444444444444</v>
+      </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="G8" s="11">
         <f>D8-C8</f>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="11">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.51111111111111118</v>
+      </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="G9" s="11">
         <f t="shared" ref="G9:G21" si="0">D9-C9</f>
-        <v>0</v>
+        <v>1.0416666666666741E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="11">
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.5180555555555556</v>
+      </c>
       <c r="E10" s="1">
         <v>3</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="11">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.53125</v>
+      </c>
       <c r="E11" s="1">
         <v>4</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G11" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2500000000000067E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3286,7 +3333,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="36">
   <si>
     <t>Logboek</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>Het spel laten stoppen en achtergrondkleur toegevoegd</t>
+  </si>
+  <si>
+    <t>Wijzingen op GitHub gezet</t>
+  </si>
+  <si>
+    <t>Nieuwe mapjes gemaakt voor GameScenes</t>
+  </si>
+  <si>
+    <t>Aanpassingen gemaakt aan class StartScene</t>
+  </si>
+  <si>
+    <t>Laatste commit gemaakt.</t>
   </si>
 </sst>
 </file>
@@ -531,7 +543,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,7 +1404,7 @@
       </c>
       <c r="B8" s="5">
         <f>'Week 48'!G28</f>
-        <v>0</v>
+        <v>7.8472222222222276E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1473,7 +1485,7 @@
       </c>
       <c r="B17" s="16">
         <f>SUM(B7:B16)</f>
-        <v>0.17222222222222228</v>
+        <v>0.25069444444444455</v>
       </c>
     </row>
   </sheetData>
@@ -1650,57 +1662,81 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.57291666666666663</v>
+      </c>
       <c r="E12" s="1">
         <v>5</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G12" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="11">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.58680555555555558</v>
+      </c>
       <c r="E13" s="1">
         <v>6</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G13" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3888888888888951E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="C14" s="11">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.59375</v>
+      </c>
       <c r="E14" s="1">
         <v>7</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="11">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0.61111111111111105</v>
+      </c>
       <c r="E15" s="1">
         <v>8</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G15" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1863,7 +1899,8 @@
         <v>17</v>
       </c>
       <c r="G28" s="11">
-        <v>0</v>
+        <f>SUM(G8:G27)</f>
+        <v>7.8472222222222276E-2</v>
       </c>
     </row>
   </sheetData>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Week 47" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="38">
   <si>
     <t>Logboek</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Geen flikker gedaan</t>
   </si>
   <si>
-    <t>maandag</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nieuwe repository gemaakt </t>
   </si>
   <si>
@@ -132,6 +129,15 @@
   </si>
   <si>
     <t>Laatste commit gemaakt.</t>
+  </si>
+  <si>
+    <t>maandag</t>
+  </si>
+  <si>
+    <t>Game Gestart en gekeken waar ik vorige keer heb gedaan</t>
+  </si>
+  <si>
+    <t>Class GameOverScene, PlayScene, HelpScene en Startscene gemaakt</t>
   </si>
 </sst>
 </file>
@@ -542,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,67 +691,45 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="10">
-        <v>41603</v>
-      </c>
-      <c r="C11" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0.37986111111111115</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="1">
         <v>4</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="11">
         <f t="shared" si="0"/>
-        <v>4.8611111111111494E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="11">
-        <v>0.37986111111111115</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0.3840277777777778</v>
-      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="1">
         <v>5</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="11">
         <f t="shared" si="0"/>
-        <v>4.1666666666666519E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="11">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0.4861111111111111</v>
-      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="1">
         <v>6</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="11">
         <f t="shared" si="0"/>
-        <v>2.777777777777779E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -952,7 +936,7 @@
       </c>
       <c r="G28" s="11">
         <f>SUM(G8:G27)</f>
-        <v>0.17222222222222228</v>
+        <v>0.13541666666666669</v>
       </c>
     </row>
   </sheetData>
@@ -1395,7 +1379,7 @@
       </c>
       <c r="B7" s="5">
         <f>'Week 47'!G28</f>
-        <v>0.17222222222222228</v>
+        <v>0.13541666666666669</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1404,7 +1388,7 @@
       </c>
       <c r="B8" s="5">
         <f>'Week 48'!G28</f>
-        <v>7.8472222222222276E-2</v>
+        <v>0.11527777777777787</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1413,7 +1397,7 @@
       </c>
       <c r="B9" s="5">
         <f>'Week 49'!G28</f>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1485,7 +1469,7 @@
       </c>
       <c r="B17" s="16">
         <f>SUM(B7:B16)</f>
-        <v>0.25069444444444455</v>
+        <v>0.29236111111111124</v>
       </c>
     </row>
   </sheetData>
@@ -1498,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,202 +1567,220 @@
         <v>41603</v>
       </c>
       <c r="C8" s="11">
-        <v>0.49027777777777781</v>
+        <v>0.375</v>
       </c>
       <c r="D8" s="11">
-        <v>0.50069444444444444</v>
+        <v>0.37986111111111115</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G8" s="11">
-        <f>D8-C8</f>
-        <v>1.041666666666663E-2</v>
+        <f t="shared" ref="G8:G10" si="0">D8-C8</f>
+        <v>4.8611111111111494E-3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="12"/>
       <c r="C9" s="11">
-        <v>0.50069444444444444</v>
+        <v>0.37986111111111115</v>
       </c>
       <c r="D9" s="11">
-        <v>0.51111111111111118</v>
+        <v>0.3840277777777778</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G9" s="11">
-        <f t="shared" ref="G9:G21" si="0">D9-C9</f>
-        <v>1.0416666666666741E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.1666666666666519E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12"/>
       <c r="C10" s="11">
-        <v>0.51111111111111118</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D10" s="11">
-        <v>0.5180555555555556</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>2.777777777777779E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="12"/>
       <c r="C11" s="11">
-        <v>0.51874999999999993</v>
+        <v>0.49027777777777781</v>
       </c>
       <c r="D11" s="11">
-        <v>0.53125</v>
+        <v>0.50069444444444444</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G11" s="11">
-        <f t="shared" si="0"/>
-        <v>1.2500000000000067E-2</v>
+        <f t="shared" ref="G11:G18" si="1">D11-C11</f>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="12"/>
       <c r="C12" s="11">
-        <v>0.5625</v>
+        <v>0.50069444444444444</v>
       </c>
       <c r="D12" s="11">
-        <v>0.57291666666666663</v>
+        <v>0.51111111111111118</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G12" s="11">
-        <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.0416666666666741E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="12"/>
       <c r="C13" s="11">
-        <v>0.57291666666666663</v>
+        <v>0.51111111111111118</v>
       </c>
       <c r="D13" s="11">
-        <v>0.58680555555555558</v>
+        <v>0.5180555555555556</v>
       </c>
       <c r="E13" s="1">
         <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G13" s="11">
-        <f t="shared" si="0"/>
-        <v>1.3888888888888951E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.9444444444444198E-3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="12"/>
       <c r="C14" s="11">
-        <v>0.58680555555555558</v>
+        <v>0.51874999999999993</v>
       </c>
       <c r="D14" s="11">
-        <v>0.59375</v>
+        <v>0.53125</v>
       </c>
       <c r="E14" s="1">
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G14" s="11">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.2500000000000067E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="12"/>
       <c r="C15" s="11">
-        <v>0.60416666666666663</v>
+        <v>0.5625</v>
       </c>
       <c r="D15" s="11">
-        <v>0.61111111111111105</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E15" s="1">
         <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G15" s="11">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="11">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0.58680555555555558</v>
+      </c>
       <c r="E16" s="1">
         <v>9</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G16" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.3888888888888951E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="C17" s="11">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0.59375</v>
+      </c>
       <c r="E17" s="1">
         <v>10</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G17" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.9444444444444198E-3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="C18" s="11">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0.61111111111111105</v>
+      </c>
       <c r="E18" s="1">
         <v>11</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="G18" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.9444444444444198E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1791,7 +1793,7 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G19:G21" si="2">D19-C19</f>
         <v>0</v>
       </c>
     </row>
@@ -1805,7 +1807,7 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1819,7 +1821,7 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1900,7 +1902,7 @@
       </c>
       <c r="G28" s="11">
         <f>SUM(G8:G27)</f>
-        <v>7.8472222222222276E-2</v>
+        <v>0.11527777777777787</v>
       </c>
     </row>
   </sheetData>
@@ -1913,16 +1915,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="6" max="6" width="71.28515625" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1992,31 +1995,46 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="B8" s="10">
+        <v>41610</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.38541666666666669</v>
+      </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G8" s="11">
-        <v>0</v>
+        <f>D8-C8</f>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="11">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.40625</v>
+      </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G9" s="11">
-        <f t="shared" ref="G9:G21" si="0">D9-C9</f>
-        <v>0</v>
+        <f>D9-C9</f>
+        <v>2.0833333333333315E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2029,7 +2047,7 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G10:G26" si="0">D10-C10</f>
         <v>0</v>
       </c>
     </row>
@@ -2196,7 +2214,10 @@
       <c r="F22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="11"/>
+      <c r="G22" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -2207,7 +2228,10 @@
         <v>10</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -2218,7 +2242,10 @@
         <v>11</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -2229,7 +2256,10 @@
         <v>12</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
@@ -2240,7 +2270,10 @@
         <v>13</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -2251,7 +2284,10 @@
         <v>14</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="11">
+        <f>D26-C26</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -2264,7 +2300,7 @@
       </c>
       <c r="G28" s="11">
         <f>SUM(G8:G27)</f>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
   </sheetData>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="46">
   <si>
     <t>Logboek</t>
   </si>
@@ -137,7 +137,31 @@
     <t>Game Gestart en gekeken waar ik vorige keer heb gedaan</t>
   </si>
   <si>
-    <t>Class GameOverScene, PlayScene, HelpScene en Startscene gemaakt</t>
+    <t>Aan alle Update en Draw methode gametime meegegeven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class GameOverScene, PlayScene, HelpScene en Startscene gemaakt </t>
+  </si>
+  <si>
+    <t>Istate toegevoegd om je GameScene te selecteren die we willen</t>
+  </si>
+  <si>
+    <t>Interface Istate gemaakt</t>
+  </si>
+  <si>
+    <t>Properties aangemaakt van alle scenes class en in een region gezet</t>
+  </si>
+  <si>
+    <t>Static Input class gemaakt. Method EdgeDetecKeyDown in de class Input gedefinieerd</t>
+  </si>
+  <si>
+    <t>In de scene classes code gezet om naar een andere scene te kunnen gaan</t>
+  </si>
+  <si>
+    <t>In de Input class EdgeDectector en LevelDetector geprogrammeerd.</t>
+  </si>
+  <si>
+    <t>Lokale commit gemaakt</t>
   </si>
 </sst>
 </file>
@@ -221,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -245,6 +269,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1397,7 +1427,7 @@
       </c>
       <c r="B9" s="5">
         <f>'Week 49'!G28</f>
-        <v>4.1666666666666685E-2</v>
+        <v>0.17500000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1469,7 +1499,7 @@
       </c>
       <c r="B17" s="16">
         <f>SUM(B7:B16)</f>
-        <v>0.29236111111111124</v>
+        <v>0.4256944444444446</v>
       </c>
     </row>
   </sheetData>
@@ -1915,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1925,7 +1955,7 @@
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="6" width="71.28515625" customWidth="1"/>
+    <col min="6" max="6" width="72.140625" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2009,7 +2039,7 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="17" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="11">
@@ -2029,8 +2059,8 @@
       <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>37</v>
+      <c r="F9" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="G9" s="11">
         <f>D9-C9</f>
@@ -2040,113 +2070,161 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="11">
+        <v>0.40625</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="E10" s="1">
         <v>3</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="G10" s="11">
         <f t="shared" ref="G10:G26" si="0">D10-C10</f>
-        <v>0</v>
+        <v>1.0416666666666685E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.42499999999999999</v>
+      </c>
       <c r="E11" s="1">
         <v>4</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="G11" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333037E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.4513888888888889</v>
+      </c>
       <c r="E12" s="1">
         <v>5</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="G12" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3888888888888895E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="11">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.47222222222222227</v>
+      </c>
       <c r="E13" s="1">
         <v>6</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="G13" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="C14" s="11">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.50694444444444442</v>
+      </c>
       <c r="E14" s="1">
         <v>7</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.4722222222222154E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="11">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="E15" s="1">
         <v>8</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="G15" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3888888888888951E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0.58680555555555558</v>
+      </c>
       <c r="E16" s="1">
         <v>9</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="17" t="s">
+        <v>44</v>
+      </c>
       <c r="G16" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.430555555555558E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="C17" s="11">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0.59375</v>
+      </c>
       <c r="E17" s="1">
         <v>10</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="G17" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2157,7 +2235,7 @@
       <c r="E18" s="1">
         <v>11</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2171,7 +2249,7 @@
       <c r="E19" s="1">
         <v>12</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2185,7 +2263,7 @@
       <c r="E20" s="1">
         <v>13</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2199,7 +2277,7 @@
       <c r="E21" s="1">
         <v>14</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2210,10 +2288,10 @@
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="E22" s="1">
+        <v>15</v>
+      </c>
+      <c r="F22" s="18"/>
       <c r="G22" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2225,9 +2303,9 @@
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="1">
-        <v>10</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="F23" s="17"/>
       <c r="G23" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2239,9 +2317,9 @@
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="1">
-        <v>11</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="F24" s="17"/>
       <c r="G24" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2253,9 +2331,9 @@
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="1">
-        <v>12</v>
-      </c>
-      <c r="F25" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="F25" s="17"/>
       <c r="G25" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2267,9 +2345,9 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1">
-        <v>13</v>
-      </c>
-      <c r="F26" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="F26" s="17"/>
       <c r="G26" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2281,9 +2359,9 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
-        <v>14</v>
-      </c>
-      <c r="F27" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F27" s="17"/>
       <c r="G27" s="11">
         <f>D26-C26</f>
         <v>0</v>
@@ -2295,12 +2373,12 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G28" s="11">
         <f>SUM(G8:G27)</f>
-        <v>4.1666666666666685E-2</v>
+        <v>0.17500000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Week 47" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="49">
   <si>
     <t>Logboek</t>
   </si>
@@ -162,6 +162,15 @@
   </si>
   <si>
     <t>Lokale commit gemaakt</t>
+  </si>
+  <si>
+    <t>Maandag</t>
+  </si>
+  <si>
+    <t>Nieuwe map HelperScene gemaakt, using, namespace en class in public veranderd</t>
+  </si>
+  <si>
+    <t>Game opgestart en logboek bijgewerkt. Nieuwe map gemaakt in Content voor de afbeeldingen</t>
   </si>
 </sst>
 </file>
@@ -245,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -274,6 +283,30 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1436,7 +1469,7 @@
       </c>
       <c r="B10" s="5">
         <f>'Week 50'!G28</f>
-        <v>0</v>
+        <v>2.2916666666666696E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1499,7 +1532,7 @@
       </c>
       <c r="B17" s="16">
         <f>SUM(B7:B16)</f>
-        <v>0.4256944444444446</v>
+        <v>0.44861111111111129</v>
       </c>
     </row>
   </sheetData>
@@ -1945,8 +1978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2458,278 +2491,307 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="1">
+    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="20">
+        <v>41617</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.375</v>
+      </c>
+      <c r="E8" s="19">
         <v>1</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="1">
+      <c r="F8" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="21">
+        <f>D8-C8</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="21">
+        <v>0.375</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="E9" s="19">
         <v>2</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="11">
-        <f t="shared" ref="G9:G21" si="0">D9-C9</f>
-        <v>0</v>
+      <c r="F9" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="21">
+        <f t="shared" ref="G9:G26" si="0">D9-C9</f>
+        <v>1.2500000000000011E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="19">
         <v>3</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="11">
+      <c r="F10" s="22"/>
+      <c r="G10" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="19">
         <v>4</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="11">
+      <c r="F11" s="22"/>
+      <c r="G11" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="19">
         <v>5</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="11">
+      <c r="F12" s="22"/>
+      <c r="G12" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="19">
         <v>6</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="11">
+      <c r="F13" s="22"/>
+      <c r="G13" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="19">
         <v>7</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="11">
+      <c r="F14" s="22"/>
+      <c r="G14" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="19">
         <v>8</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="11">
+      <c r="F15" s="22"/>
+      <c r="G15" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="19">
         <v>9</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="11">
+      <c r="F16" s="22"/>
+      <c r="G16" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="19">
         <v>10</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="11">
+      <c r="F17" s="22"/>
+      <c r="G17" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="19">
         <v>11</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="11">
+      <c r="F18" s="22"/>
+      <c r="G18" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="19">
         <v>12</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="11">
+      <c r="F19" s="22"/>
+      <c r="G19" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="19">
         <v>13</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="11">
+      <c r="F20" s="22"/>
+      <c r="G20" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="19">
         <v>14</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="11">
+      <c r="F21" s="22"/>
+      <c r="G21" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="7" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="11"/>
+      <c r="G22" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="19">
         <v>10</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="19">
         <v>11</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="19">
         <v>12</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19">
         <v>13</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19">
         <v>14</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="21">
+        <f>D27-C27</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -2740,9 +2802,9 @@
       <c r="F28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="21">
         <f>SUM(G8:G27)</f>
-        <v>0</v>
+        <v>2.2916666666666696E-2</v>
       </c>
     </row>
   </sheetData>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="53">
   <si>
     <t>Logboek</t>
   </si>
@@ -171,6 +171,18 @@
   </si>
   <si>
     <t>Game opgestart en logboek bijgewerkt. Nieuwe map gemaakt in Content voor de afbeeldingen</t>
+  </si>
+  <si>
+    <t>In de StartScene roept de constructor de Initialize method aan en deze roept weer op zijn beurt de LoadContent method aan.</t>
+  </si>
+  <si>
+    <t>De Image constructor krijgt als argument mee. PyramidPanic game, string pathNameAsset, Vector 2 position.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In de constuctor van de Image class een instantie gemaakt van de texture en de rectangle </t>
+  </si>
+  <si>
+    <t>SpriteBatch toegevoegd zodat we de background konden defineren in de Image class.</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1481,7 @@
       </c>
       <c r="B10" s="5">
         <f>'Week 50'!G28</f>
-        <v>2.2916666666666696E-2</v>
+        <v>6.1111111111111116E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1532,7 +1544,7 @@
       </c>
       <c r="B17" s="16">
         <f>SUM(B7:B16)</f>
-        <v>0.44861111111111129</v>
+        <v>0.48680555555555571</v>
       </c>
     </row>
   </sheetData>
@@ -2425,7 +2437,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2541,60 +2553,84 @@
         <v>1.2500000000000011E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="C10" s="21">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.39930555555555558</v>
+      </c>
       <c r="E10" s="19">
         <v>3</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="G10" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.0416666666666685E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="21">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.40972222222222227</v>
+      </c>
       <c r="E11" s="19">
         <v>4</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="G11" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.0416666666666685E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="24">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="E12" s="19">
         <v>5</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="G12" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.9444444444444198E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="21">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0.42708333333333331</v>
+      </c>
       <c r="E13" s="19">
         <v>6</v>
       </c>
-      <c r="F13" s="22"/>
+      <c r="F13" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="G13" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2804,7 +2840,7 @@
       </c>
       <c r="G28" s="21">
         <f>SUM(G8:G27)</f>
-        <v>2.2916666666666696E-2</v>
+        <v>6.1111111111111116E-2</v>
       </c>
     </row>
   </sheetData>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="56">
   <si>
     <t>Logboek</t>
   </si>
@@ -183,6 +183,15 @@
   </si>
   <si>
     <t>SpriteBatch toegevoegd zodat we de background konden defineren in de Image class.</t>
+  </si>
+  <si>
+    <t>Commit gemaakt en images toegevoegd aan de StartScene map</t>
+  </si>
+  <si>
+    <t>Image toegevoegd voor start, load, help, scores en quit en gedefineerd in de draw methode</t>
+  </si>
+  <si>
+    <t>Commit gemaakt van de bijgewerkte gegevens</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1490,7 @@
       </c>
       <c r="B10" s="5">
         <f>'Week 50'!G28</f>
-        <v>6.1111111111111116E-2</v>
+        <v>9.5833333333333381E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1544,7 +1553,7 @@
       </c>
       <c r="B17" s="16">
         <f>SUM(B7:B16)</f>
-        <v>0.48680555555555571</v>
+        <v>0.52152777777777803</v>
       </c>
     </row>
   </sheetData>
@@ -2436,8 +2445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2633,46 +2642,64 @@
         <v>1.041666666666663E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="C14" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0.44791666666666669</v>
+      </c>
       <c r="E14" s="19">
         <v>7</v>
       </c>
-      <c r="F14" s="22"/>
+      <c r="F14" s="22" t="s">
+        <v>53</v>
+      </c>
       <c r="G14" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.0416666666666685E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="21">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0.46875</v>
+      </c>
       <c r="E15" s="19">
         <v>8</v>
       </c>
-      <c r="F15" s="22"/>
+      <c r="F15" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="G15" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.0833333333333315E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="C16" s="21">
+        <v>0.46875</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0.47222222222222227</v>
+      </c>
       <c r="E16" s="19">
         <v>9</v>
       </c>
-      <c r="F16" s="22"/>
+      <c r="F16" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="G16" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4722222222222654E-3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2840,7 +2867,7 @@
       </c>
       <c r="G28" s="21">
         <f>SUM(G8:G27)</f>
-        <v>6.1111111111111116E-2</v>
+        <v>9.5833333333333381E-2</v>
       </c>
     </row>
   </sheetData>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="56">
   <si>
     <t>Logboek</t>
   </si>
@@ -188,10 +188,10 @@
     <t>Commit gemaakt en images toegevoegd aan de StartScene map</t>
   </si>
   <si>
-    <t>Image toegevoegd voor start, load, help, scores en quit en gedefineerd in de draw methode</t>
-  </si>
-  <si>
     <t>Commit gemaakt van de bijgewerkte gegevens</t>
+  </si>
+  <si>
+    <t>Image toegevoegd voor start, load, help, scores en quit en gedefineerd in de fields en in de draw methode</t>
   </si>
 </sst>
 </file>
@@ -2446,7 +2446,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2675,7 +2675,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" s="21">
         <f t="shared" si="0"/>
@@ -2695,7 +2695,7 @@
         <v>9</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" s="21">
         <f t="shared" si="0"/>
@@ -2777,10 +2777,10 @@
       <c r="B22" s="23"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="25" t="s">
-        <v>13</v>
-      </c>
+      <c r="E22" s="19">
+        <v>15</v>
+      </c>
+      <c r="F22" s="25"/>
       <c r="G22" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2792,7 +2792,7 @@
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
       <c r="E23" s="19">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="21">
@@ -2806,7 +2806,7 @@
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="19">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="21">
@@ -2820,7 +2820,7 @@
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="19">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="21">
@@ -2834,7 +2834,7 @@
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="21">
@@ -2848,7 +2848,7 @@
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="21">

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="58">
   <si>
     <t>Logboek</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>Image toegevoegd voor start, load, help, scores en quit en gedefineerd in de fields en in de draw methode</t>
+  </si>
+  <si>
+    <t>Variabele buttonActive gedefineerd en de switch case gedefineerd en break.</t>
+  </si>
+  <si>
+    <t>Commit gemaakt en gepushed</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1496,7 @@
       </c>
       <c r="B10" s="5">
         <f>'Week 50'!G28</f>
-        <v>9.5833333333333381E-2</v>
+        <v>0.12708333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1553,7 +1559,7 @@
       </c>
       <c r="B17" s="16">
         <f>SUM(B7:B16)</f>
-        <v>0.52152777777777803</v>
+        <v>0.55277777777777792</v>
       </c>
     </row>
   </sheetData>
@@ -2445,8 +2451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2702,32 +2708,44 @@
         <v>3.4722222222222654E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="21">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0.50902777777777775</v>
+      </c>
       <c r="E17" s="19">
         <v>10</v>
       </c>
-      <c r="F17" s="22"/>
+      <c r="F17" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="G17" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.9861111111111061E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="21">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="D18" s="21">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E18" s="19">
         <v>11</v>
       </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="G18" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.388888888888884E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2867,7 +2885,7 @@
       </c>
       <c r="G28" s="21">
         <f>SUM(G8:G27)</f>
-        <v>9.5833333333333381E-2</v>
+        <v>0.12708333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -2451,7 +2451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Week 47" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="62">
   <si>
     <t>Logboek</t>
   </si>
@@ -198,6 +198,18 @@
   </si>
   <si>
     <t>Commit gemaakt en gepushed</t>
+  </si>
+  <si>
+    <t>Format logboek bijgewerkt mapje          week 51 gemaakt. Game opgestart en gestest of hij het nog deed</t>
+  </si>
+  <si>
+    <t>code verkort door een helper in de menu scene te zetten</t>
+  </si>
+  <si>
+    <t>Input.EdgeDetectKeyDown gemaakt zodat je van startscene naar playscene kan en ook terug</t>
+  </si>
+  <si>
+    <t>commit gemaakt</t>
   </si>
 </sst>
 </file>
@@ -1505,7 +1517,7 @@
       </c>
       <c r="B11" s="5">
         <f>'Week 51'!G28</f>
-        <v>0</v>
+        <v>3.819444444444442E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1559,7 +1571,7 @@
       </c>
       <c r="B17" s="16">
         <f>SUM(B7:B16)</f>
-        <v>0.55277777777777792</v>
+        <v>0.59097222222222234</v>
       </c>
     </row>
   </sheetData>
@@ -2451,7 +2463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -2898,12 +2910,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
@@ -2975,268 +2988,309 @@
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="20">
+        <v>41624</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="11">
+        <f>D8-C8</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="21">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="E9" s="19">
+        <v>2</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" ref="G9:G27" si="0">D9-C9</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="21">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="E10" s="19">
+        <v>3</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="19">
+        <v>4</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="19">
+        <v>5</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="19">
+        <v>6</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="19">
+        <v>7</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="19">
+        <v>8</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="19">
+        <v>9</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="19">
+        <v>10</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="19">
+        <v>11</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="19">
+        <v>12</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="19">
+        <v>13</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="19">
+        <v>14</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="19">
         <v>15</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="11">
-        <f t="shared" ref="G9:G21" si="0">D9-C9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="1">
-        <v>3</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="1">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="1">
-        <v>5</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="1">
-        <v>6</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="1">
-        <v>7</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="1">
-        <v>8</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="1">
-        <v>9</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="1">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="1">
-        <v>11</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="1">
-        <v>12</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="1">
-        <v>13</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="1">
-        <v>14</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="11"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="1">
-        <v>10</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="19">
+        <v>16</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="1">
-        <v>11</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="19">
+        <v>17</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="1">
-        <v>12</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="19">
+        <v>18</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1">
-        <v>13</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19">
+        <v>19</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1">
-        <v>14</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19">
+        <v>20</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -3249,7 +3303,7 @@
       </c>
       <c r="G28" s="11">
         <f>SUM(G8:G27)</f>
-        <v>0</v>
+        <v>3.819444444444442E-2</v>
       </c>
     </row>
   </sheetData>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="69">
   <si>
     <t>Logboek</t>
   </si>
@@ -209,7 +209,28 @@
     <t>Input.EdgeDetectKeyDown gemaakt zodat je van startscene naar playscene kan en ook terug</t>
   </si>
   <si>
-    <t>commit gemaakt</t>
+    <t>commit gemaakt en gepushed naar de repo</t>
+  </si>
+  <si>
+    <t>LoadScene mapje gemaakt er daarin nieuwe classe LoadScene gemaakt.</t>
+  </si>
+  <si>
+    <t>Usings aangepast en de classe public gemaakt in de LoadScene classe</t>
+  </si>
+  <si>
+    <t>Laat de class de interfate Istate implementeren</t>
+  </si>
+  <si>
+    <t>Een field van loadScene gemaakt van het type loadScene</t>
+  </si>
+  <si>
+    <t>Een property gemaakt voor het LoadScene field  ( een getter)</t>
+  </si>
+  <si>
+    <t>Een object aangemaakt in de LoadContent method in de Pyramid Panic class</t>
+  </si>
+  <si>
+    <t>Nieuwe classe gemaakt voor ScoresScene</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1538,7 @@
       </c>
       <c r="B11" s="5">
         <f>'Week 51'!G28</f>
-        <v>3.819444444444442E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1571,7 +1592,7 @@
       </c>
       <c r="B17" s="16">
         <f>SUM(B7:B16)</f>
-        <v>0.59097222222222234</v>
+        <v>0.61527777777777792</v>
       </c>
     </row>
   </sheetData>
@@ -2463,7 +2484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -2910,8 +2931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3007,7 +3028,7 @@
       <c r="F8" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="21">
         <f>D8-C8</f>
         <v>6.9444444444444198E-3</v>
       </c>
@@ -3027,7 +3048,7 @@
       <c r="F9" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="21">
         <f t="shared" ref="G9:G27" si="0">D9-C9</f>
         <v>1.0416666666666685E-2</v>
       </c>
@@ -3047,123 +3068,169 @@
       <c r="F10" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="21">
         <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="21">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.40416666666666662</v>
+      </c>
       <c r="E11" s="19">
         <v>4</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="21">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="21">
+        <v>0.40416666666666662</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0.40902777777777777</v>
+      </c>
       <c r="E12" s="19">
         <v>5</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="21">
+        <f t="shared" si="0"/>
+        <v>4.8611111111111494E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="21">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0.40972222222222227</v>
+      </c>
       <c r="E13" s="19">
         <v>6</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="21">
+        <f t="shared" si="0"/>
+        <v>6.9444444444449749E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="C14" s="21">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0.41041666666666665</v>
+      </c>
       <c r="E14" s="19">
         <v>7</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="21">
+        <f t="shared" si="0"/>
+        <v>6.9444444444438647E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="21">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0.41388888888888892</v>
+      </c>
       <c r="E15" s="19">
         <v>8</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222654E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="C16" s="21">
+        <v>0.41388888888888892</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0.41597222222222219</v>
+      </c>
       <c r="E16" s="19">
         <v>9</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="21">
+        <f t="shared" si="0"/>
+        <v>2.0833333333332704E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="21">
+        <v>0.41597222222222219</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0.41736111111111113</v>
+      </c>
       <c r="E17" s="19">
         <v>10</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="21">
+        <f t="shared" si="0"/>
+        <v>1.3888888888889395E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="21">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="D18" s="21">
+        <v>0.42708333333333331</v>
+      </c>
       <c r="E18" s="19">
         <v>11</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F18" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="21">
+        <f t="shared" si="0"/>
+        <v>9.7222222222221877E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3175,7 +3242,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="22"/>
-      <c r="G19" s="11">
+      <c r="G19" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3189,7 +3256,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="22"/>
-      <c r="G20" s="11">
+      <c r="G20" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3203,7 +3270,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="22"/>
-      <c r="G21" s="11">
+      <c r="G21" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3217,7 +3284,7 @@
         <v>15</v>
       </c>
       <c r="F22" s="25"/>
-      <c r="G22" s="11">
+      <c r="G22" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3231,7 +3298,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="22"/>
-      <c r="G23" s="11">
+      <c r="G23" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3245,7 +3312,7 @@
         <v>17</v>
       </c>
       <c r="F24" s="22"/>
-      <c r="G24" s="11">
+      <c r="G24" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3259,7 +3326,7 @@
         <v>18</v>
       </c>
       <c r="F25" s="22"/>
-      <c r="G25" s="11">
+      <c r="G25" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3273,7 +3340,7 @@
         <v>19</v>
       </c>
       <c r="F26" s="22"/>
-      <c r="G26" s="11">
+      <c r="G26" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3287,7 +3354,7 @@
         <v>20</v>
       </c>
       <c r="F27" s="19"/>
-      <c r="G27" s="11">
+      <c r="G27" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3301,9 +3368,9 @@
       <c r="F28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="21">
         <f>SUM(G8:G27)</f>
-        <v>3.819444444444442E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
   </sheetData>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Week 47" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="Week 3" sheetId="11" r:id="rId9"/>
     <sheet name="Week 4" sheetId="12" r:id="rId10"/>
     <sheet name="Totaal" sheetId="2" r:id="rId11"/>
+    <sheet name="toets 1 GameScene" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="101">
   <si>
     <t>Logboek</t>
   </si>
@@ -231,18 +232,115 @@
   </si>
   <si>
     <t>Nieuwe classe gemaakt voor ScoresScene</t>
+  </si>
+  <si>
+    <t>Pyramid Panic</t>
+  </si>
+  <si>
+    <t>Arjan de Ruijter</t>
+  </si>
+  <si>
+    <t>Toets 1 GameScenes</t>
+  </si>
+  <si>
+    <t>Maak een mapje in de solutionexplorer genaamd QuitScene</t>
+  </si>
+  <si>
+    <t>Maak een class QuitScene in de QuitScene map</t>
+  </si>
+  <si>
+    <t>Pas de usings aan en maak de QuitScene class public</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laat de class de interface implementeren IState </t>
+  </si>
+  <si>
+    <t>Kopieer de inhoud van de PlayScene class naar de QuitScene class en verander de naam van de constructor</t>
+  </si>
+  <si>
+    <t>Maak een commit met naam: Toets1 commit 1</t>
+  </si>
+  <si>
+    <t>Maak een field QuitScene van het type QuitScene en vergeet niet de namespace te controleren waar de QuitScene in staat. Kijk of dit ook de naam PyramidPanic draagt</t>
+  </si>
+  <si>
+    <t>Maak een property voor het QuitScene field (een getter)</t>
+  </si>
+  <si>
+    <t>Maak een nieuw object van de class QuitScene aan in de LoadContent() method van de PyramidPanic class</t>
+  </si>
+  <si>
+    <t>Zorg dat je zowel met het toetsenbord als met de muis via de knoppen naar  QuitScene kunt gaan</t>
+  </si>
+  <si>
+    <t>Maak een commit met naam: Toets1 commit 2</t>
+  </si>
+  <si>
+    <t>Game opgestart en format logboek gewijzigd</t>
+  </si>
+  <si>
+    <t>Nieuwe interface gemaakt IBeetleState</t>
+  </si>
+  <si>
+    <t>Usings veranderd van de beetle classe en de classe public gemaakt</t>
+  </si>
+  <si>
+    <t>De interface bevat twee methodes Update(gametime gametime) en Draw (gametime gametime)</t>
+  </si>
+  <si>
+    <t>Propertie gemaakt voor IBeetleState</t>
+  </si>
+  <si>
+    <t>Propertie gemaakt voor PyramidPanic</t>
+  </si>
+  <si>
+    <t>Propertie gemaakt voor Speed</t>
+  </si>
+  <si>
+    <t>Propertie gemaakt voor  Texture 2d</t>
+  </si>
+  <si>
+    <t>Nieuwe classe gemaakt Walkup voor de toestand. De Usings veranderd en de classe public gemaakt.</t>
+  </si>
+  <si>
+    <t>De classe Walkup de interface laten implementeren</t>
+  </si>
+  <si>
+    <t>Constructor aangemaakt in de Walkup class en de beetle meegegeven.</t>
+  </si>
+  <si>
+    <t>Laat de Beetle class niet meer erven van Animated sprite. Laat de toestand class Walkup erven van animated sprite.</t>
+  </si>
+  <si>
+    <t>De constructor van de AnimatedSprite class krijgt een instantie van de Beetle class mee. Dit object registreren we als field. Het spriteBatch object in de draw method krijgen we nu mee via het beetle object.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In de Beetle class maken we een field position met een property en de constructor krijgt een argument position erbij. </t>
+  </si>
+  <si>
+    <t>WalkDown classe gemaakt en alles gekopierd van Walkup en veranderd. En ook een ifstatement toegevoegd voor de beetle om het canvas niet te verlaten.</t>
+  </si>
+  <si>
+    <t>De position veranderd en de destinationrect</t>
+  </si>
+  <si>
+    <t>spriteeffect veranderd in flipvertically in de walkdown classe</t>
+  </si>
+  <si>
+    <t>alles wat we hebben gedaan voor de beetle ook gedaan voor scorpion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="167" formatCode="[$-413]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +391,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -314,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -367,6 +488,48 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1574,7 +1737,7 @@
       </c>
       <c r="B15" s="5">
         <f>'Week 3'!G28</f>
-        <v>0</v>
+        <v>9.0277777777777846E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1592,8 +1755,331 @@
       </c>
       <c r="B17" s="16">
         <f>SUM(B7:B16)</f>
-        <v>0.61527777777777792</v>
-      </c>
+        <v>0.70555555555555571</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="32">
+        <v>41624</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="D7" s="33">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="E7" s="31">
+        <v>1</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="33">
+        <f t="shared" ref="G7:G17" si="0">D7-C7</f>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="D8" s="33">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="E8" s="31">
+        <v>2</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="33">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="D9" s="33">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="E9" s="31">
+        <v>3</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="33">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="D10" s="33">
+        <v>0.58819444444444446</v>
+      </c>
+      <c r="E10" s="31">
+        <v>4</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="33">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33">
+        <v>0.58819444444444446</v>
+      </c>
+      <c r="D11" s="33">
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="E11" s="31">
+        <v>5</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="33">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33">
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="D12" s="33">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="E12" s="31">
+        <v>6</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="33">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D13" s="33">
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="E13" s="31">
+        <v>7</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="33">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33">
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="D14" s="33">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="E14" s="31">
+        <v>8</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="33">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="D15" s="33">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="E15" s="31">
+        <v>9</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="33">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666519E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D16" s="33">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="E16" s="31">
+        <v>10</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="33">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222099E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="D17" s="33">
+        <v>0.60138888888888886</v>
+      </c>
+      <c r="E17" s="31">
+        <v>11</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="33">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="33">
+        <f>SUM(G7:G16)</f>
+        <v>1.5277777777777724E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2931,7 +3417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -3383,7 +3869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -4503,8 +4989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4512,7 +4998,7 @@
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="6" width="41.42578125" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4581,264 +5067,379 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="1">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="10">
+        <v>41652</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="E8" s="40">
         <v>1</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="11">
+      <c r="F8" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="21">
         <f>D8-C8</f>
-        <v>0</v>
+        <v>7.6388888888889173E-3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="1">
+      <c r="C9" s="21">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="E9" s="40">
         <v>2</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="11">
-        <f t="shared" ref="G9:G21" si="0">D9-C9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="21">
+        <f t="shared" ref="G9:G22" si="0">D9-C9</f>
+        <v>1.388888888888884E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="1">
+      <c r="C10" s="21">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.375</v>
+      </c>
+      <c r="E10" s="40">
         <v>3</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="21">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="1">
+      <c r="C11" s="21">
+        <v>0.375</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="E11" s="40">
         <v>4</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F11" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="21">
+        <f t="shared" si="0"/>
+        <v>6.2500000000000333E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="1">
+      <c r="C12" s="21">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="E12" s="40">
         <v>5</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F12" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="21">
+        <f t="shared" si="0"/>
+        <v>6.9444444444449749E-4</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="1">
+      <c r="C13" s="21">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="E13" s="40">
         <v>6</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F13" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="21">
+        <f t="shared" si="0"/>
+        <v>6.9444444444438647E-4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="1">
+      <c r="C14" s="21">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E14" s="40">
         <v>7</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F14" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="21">
+        <f t="shared" si="0"/>
+        <v>6.9444444444449749E-4</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="1">
+      <c r="C15" s="21">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="E15" s="40">
         <v>8</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="1">
+      <c r="C16" s="21">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="E16" s="40">
         <v>9</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="21">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666519E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="1">
+      <c r="C17" s="21">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E17" s="40">
         <v>10</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="21">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777679E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="1">
+      <c r="C18" s="21">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D18" s="21">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="E18" s="40">
         <v>11</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="21">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="1">
+      <c r="C19" s="21">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D19" s="21">
+        <v>0.40138888888888885</v>
+      </c>
+      <c r="E19" s="40">
         <v>12</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="21">
+        <f t="shared" si="0"/>
+        <v>2.0833333333332704E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="1">
+      <c r="C20" s="21">
+        <v>0.40138888888888885</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E20" s="40">
         <v>13</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="21">
+        <f t="shared" si="0"/>
+        <v>8.3333333333334147E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="1">
+      <c r="C21" s="21">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="E21" s="40">
         <v>14</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F21" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="21">
+        <f t="shared" si="0"/>
+        <v>3.4722222222221544E-3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="21">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D22" s="21">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E22" s="40">
+        <v>15</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="21">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="1">
-        <v>10</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="11">
+      <c r="C23" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E23" s="40">
+        <v>16</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="21">
         <f>D23-C23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.0416666666666685E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="1">
-        <v>11</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="11">
+      <c r="C24" s="21">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="D24" s="21">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="E24" s="40">
+        <v>17</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="21">
         <f t="shared" ref="G24:G27" si="1">D24-C24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="1">
-        <v>12</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="11">
+      <c r="C25" s="21">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="D25" s="21">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E25" s="40">
+        <v>18</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.3611111111111138E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1">
-        <v>13</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="11">
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40">
+        <v>19</v>
+      </c>
+      <c r="F26" s="42"/>
+      <c r="G26" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4846,13 +5447,13 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1">
-        <v>14</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="11">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40">
+        <v>20</v>
+      </c>
+      <c r="F27" s="42"/>
+      <c r="G27" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4868,7 +5469,7 @@
       </c>
       <c r="G28" s="11">
         <f>SUM(G8:G27)</f>
-        <v>0</v>
+        <v>9.0277777777777846E-2</v>
       </c>
     </row>
   </sheetData>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="103">
   <si>
     <t>Logboek</t>
   </si>
@@ -328,6 +328,12 @@
   </si>
   <si>
     <t>alles wat we hebben gedaan voor de beetle ook gedaan voor scorpion</t>
+  </si>
+  <si>
+    <t>commit gemaakt</t>
+  </si>
+  <si>
+    <t>IAnimatedSprite interface gemaakt om alle errors eruit te halen.</t>
   </si>
 </sst>
 </file>
@@ -435,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -530,6 +536,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1737,7 +1746,7 @@
       </c>
       <c r="B15" s="5">
         <f>'Week 3'!G28</f>
-        <v>9.0277777777777846E-2</v>
+        <v>0.10069444444444448</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1755,7 +1764,7 @@
       </c>
       <c r="B17" s="16">
         <f>SUM(B7:B16)</f>
-        <v>0.70555555555555571</v>
+        <v>0.71597222222222245</v>
       </c>
     </row>
   </sheetData>
@@ -4989,8 +4998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5433,29 +5442,41 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
+      <c r="C26" s="43">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D26" s="43">
+        <v>0.48125000000000001</v>
+      </c>
       <c r="E26" s="40">
         <v>19</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="42" t="s">
+        <v>101</v>
+      </c>
       <c r="G26" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.0833333333333259E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
+      <c r="C27" s="43">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="D27" s="43">
+        <v>0.48958333333333331</v>
+      </c>
       <c r="E27" s="40">
         <v>20</v>
       </c>
-      <c r="F27" s="42"/>
+      <c r="F27" s="42" t="s">
+        <v>102</v>
+      </c>
       <c r="G27" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.3333333333333037E-3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -5469,7 +5490,7 @@
       </c>
       <c r="G28" s="11">
         <f>SUM(G8:G27)</f>
-        <v>9.0277777777777846E-2</v>
+        <v>0.10069444444444448</v>
       </c>
     </row>
   </sheetData>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Week 47" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="106">
   <si>
     <t>Logboek</t>
   </si>
@@ -334,6 +334,15 @@
   </si>
   <si>
     <t>IAnimatedSprite interface gemaakt om alle errors eruit te halen.</t>
+  </si>
+  <si>
+    <t>Game opgestart. Logboek format gewijzigd</t>
+  </si>
+  <si>
+    <t>Nieuwe vector 2 gemaakt velocity voor walkup, walkdown</t>
+  </si>
+  <si>
+    <t>Nieuwe vector 2 aangemaakt velocity voor walkright, walkleft.</t>
   </si>
 </sst>
 </file>
@@ -1244,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,35 +1330,51 @@
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+    <row r="8" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="10">
+        <v>41659</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.37152777777777773</v>
+      </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="17" t="s">
+        <v>103</v>
+      </c>
       <c r="G8" s="11">
         <f>D8-C8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.4722222222221544E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="11">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.37847222222222227</v>
+      </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="17" t="s">
+        <v>104</v>
+      </c>
       <c r="G9" s="11">
         <f t="shared" ref="G9:G21" si="0">D9-C9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.9444444444445308E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
@@ -1357,7 +1382,9 @@
       <c r="E10" s="1">
         <v>3</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1371,7 +1398,7 @@
       <c r="E11" s="1">
         <v>4</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1385,7 +1412,7 @@
       <c r="E12" s="1">
         <v>5</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1399,7 +1426,7 @@
       <c r="E13" s="1">
         <v>6</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1413,7 +1440,7 @@
       <c r="E14" s="1">
         <v>7</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1427,7 +1454,7 @@
       <c r="E15" s="1">
         <v>8</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1441,7 +1468,7 @@
       <c r="E16" s="1">
         <v>9</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1455,7 +1482,7 @@
       <c r="E17" s="1">
         <v>10</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1469,7 +1496,7 @@
       <c r="E18" s="1">
         <v>11</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1483,7 +1510,7 @@
       <c r="E19" s="1">
         <v>12</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1497,7 +1524,7 @@
       <c r="E20" s="1">
         <v>13</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1511,7 +1538,7 @@
       <c r="E21" s="1">
         <v>14</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1609,7 +1636,7 @@
       </c>
       <c r="G28" s="11">
         <f>SUM(G8:G27)</f>
-        <v>0</v>
+        <v>1.0416666666666685E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1755,7 +1782,7 @@
       </c>
       <c r="B16" s="5">
         <f>'Week 4'!G28</f>
-        <v>0</v>
+        <v>1.0416666666666685E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1764,7 +1791,7 @@
       </c>
       <c r="B17" s="16">
         <f>SUM(B7:B16)</f>
-        <v>0.71597222222222245</v>
+        <v>0.72638888888888919</v>
       </c>
     </row>
   </sheetData>
@@ -4998,8 +5025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="108">
   <si>
     <t>Logboek</t>
   </si>
@@ -343,6 +343,12 @@
   </si>
   <si>
     <t>Nieuwe vector 2 aangemaakt velocity voor walkright, walkleft.</t>
+  </si>
+  <si>
+    <t>Nieuwe toestand gemaakt explorerwalkleft, explorerwalkright, explorerwalkdown en explorerwalkup</t>
+  </si>
+  <si>
+    <t>Classes gemaakt voor de toestanden van explorer</t>
   </si>
 </sst>
 </file>
@@ -450,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -548,6 +554,12 @@
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1254,7 +1266,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,10 +1349,10 @@
       <c r="B8" s="10">
         <v>41659</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="44">
         <v>0.36805555555555558</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="44">
         <v>0.37152777777777773</v>
       </c>
       <c r="E8" s="1">
@@ -1357,10 +1369,10 @@
     <row r="9" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="11">
+      <c r="C9" s="44">
         <v>0.37152777777777773</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="44">
         <v>0.37847222222222227</v>
       </c>
       <c r="E9" s="1">
@@ -1377,8 +1389,12 @@
     <row r="10" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="44">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="D10" s="44">
+        <v>0.38194444444444442</v>
+      </c>
       <c r="E10" s="1">
         <v>3</v>
       </c>
@@ -1387,42 +1403,54 @@
       </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.4722222222221544E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="44">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="D11" s="44">
+        <v>0.39374999999999999</v>
+      </c>
       <c r="E11" s="1">
         <v>4</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="17" t="s">
+        <v>106</v>
+      </c>
       <c r="G11" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.1805555555555569E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="44">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="D12" s="44">
+        <v>0.39861111111111108</v>
+      </c>
       <c r="E12" s="1">
         <v>5</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>107</v>
+      </c>
       <c r="G12" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.8611111111110938E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="1">
         <v>6</v>
       </c>
@@ -1435,8 +1463,8 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="1">
         <v>7</v>
       </c>
@@ -1449,8 +1477,8 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="1">
         <v>8</v>
       </c>
@@ -1463,8 +1491,8 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="1">
         <v>9</v>
       </c>
@@ -1477,8 +1505,8 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="1">
         <v>10</v>
       </c>
@@ -1491,8 +1519,8 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="1">
         <v>11</v>
       </c>
@@ -1505,8 +1533,8 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="1">
         <v>12</v>
       </c>
@@ -1519,8 +1547,8 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="1">
         <v>13</v>
       </c>
@@ -1533,8 +1561,8 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="1">
         <v>14</v>
       </c>
@@ -1547,8 +1575,8 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="1"/>
       <c r="F22" s="7" t="s">
         <v>13</v>
@@ -1558,8 +1586,8 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="1">
         <v>10</v>
       </c>
@@ -1572,8 +1600,8 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="1">
         <v>11</v>
       </c>
@@ -1586,8 +1614,8 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="1">
         <v>12</v>
       </c>
@@ -1600,8 +1628,8 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="1">
         <v>13</v>
       </c>
@@ -1614,8 +1642,8 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="1">
         <v>14</v>
       </c>
@@ -1628,15 +1656,15 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G28" s="11">
         <f>SUM(G8:G27)</f>
-        <v>1.0416666666666685E-2</v>
+        <v>3.0555555555555503E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1782,7 +1810,7 @@
       </c>
       <c r="B16" s="5">
         <f>'Week 4'!G28</f>
-        <v>1.0416666666666685E-2</v>
+        <v>3.0555555555555503E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1791,7 +1819,7 @@
       </c>
       <c r="B17" s="16">
         <f>SUM(B7:B16)</f>
-        <v>0.72638888888888919</v>
+        <v>0.7465277777777779</v>
       </c>
     </row>
   </sheetData>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="109">
   <si>
     <t>Logboek</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>Classes gemaakt voor de toestanden van explorer</t>
+  </si>
+  <si>
+    <t>toestand Explorerwalkright gemaakt</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1269,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,29 +1452,41 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
+      <c r="C13" s="44">
+        <v>0.40625</v>
+      </c>
+      <c r="D13" s="44">
+        <v>0.40763888888888888</v>
+      </c>
       <c r="E13" s="1">
         <v>6</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="G13" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.388888888888884E-3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
+      <c r="C14" s="44">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="D14" s="44">
+        <v>0.4236111111111111</v>
+      </c>
       <c r="E14" s="1">
         <v>7</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5972222222222221E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1664,7 +1679,7 @@
       </c>
       <c r="G28" s="11">
         <f>SUM(G8:G27)</f>
-        <v>3.0555555555555503E-2</v>
+        <v>4.7916666666666607E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1810,7 +1825,7 @@
       </c>
       <c r="B16" s="5">
         <f>'Week 4'!G28</f>
-        <v>3.0555555555555503E-2</v>
+        <v>4.7916666666666607E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1819,7 +1834,7 @@
       </c>
       <c r="B17" s="16">
         <f>SUM(B7:B16)</f>
-        <v>0.7465277777777779</v>
+        <v>0.76388888888888906</v>
       </c>
     </row>
   </sheetData>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="111">
   <si>
     <t>Logboek</t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t>toestand Explorerwalkright gemaakt</t>
+  </si>
+  <si>
+    <t>Nieuwe classe gemaakt ExplorerIdle</t>
+  </si>
+  <si>
+    <t>ExplorerIdle aangepast</t>
   </si>
 </sst>
 </file>
@@ -1268,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,43 +1498,61 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
+      <c r="C15" s="44">
+        <v>0.4375</v>
+      </c>
+      <c r="D15" s="44">
+        <v>0.44166666666666665</v>
+      </c>
       <c r="E15" s="1">
         <v>8</v>
       </c>
-      <c r="F15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>109</v>
+      </c>
       <c r="G15" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666519E-3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
+      <c r="C16" s="44">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="D16" s="44">
+        <v>0.4465277777777778</v>
+      </c>
       <c r="E16" s="1">
         <v>9</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="G16" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.8611111111111494E-3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
+      <c r="C17" s="44">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="D17" s="44">
+        <v>0.44791666666666669</v>
+      </c>
       <c r="E17" s="1">
         <v>10</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="G17" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.388888888888884E-3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1679,7 +1703,7 @@
       </c>
       <c r="G28" s="11">
         <f>SUM(G8:G27)</f>
-        <v>4.7916666666666607E-2</v>
+        <v>5.8333333333333293E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1825,7 +1849,7 @@
       </c>
       <c r="B16" s="5">
         <f>'Week 4'!G28</f>
-        <v>4.7916666666666607E-2</v>
+        <v>5.8333333333333293E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1834,7 +1858,7 @@
       </c>
       <c r="B17" s="16">
         <f>SUM(B7:B16)</f>
-        <v>0.76388888888888906</v>
+        <v>0.7743055555555558</v>
       </c>
     </row>
   </sheetData>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" firstSheet="2" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Week 47" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,17 @@
     <sheet name="Week 2" sheetId="10" r:id="rId8"/>
     <sheet name="Week 3" sheetId="11" r:id="rId9"/>
     <sheet name="Week 4" sheetId="12" r:id="rId10"/>
-    <sheet name="Totaal" sheetId="2" r:id="rId11"/>
-    <sheet name="toets 1 GameScene" sheetId="13" r:id="rId12"/>
+    <sheet name="week 5" sheetId="14" r:id="rId11"/>
+    <sheet name="Totaal" sheetId="2" r:id="rId12"/>
+    <sheet name="toets 1 GameScene" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet3" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="117">
   <si>
     <t>Logboek</t>
   </si>
@@ -358,6 +360,24 @@
   </si>
   <si>
     <t>ExplorerIdle aangepast</t>
+  </si>
+  <si>
+    <t>Maak in de AnimatedSprite class een field: private Vector2 pivot</t>
+  </si>
+  <si>
+    <t>Geef this.pivot in de constructor van de AnimatedSprite class de waarde new Vector2(16f, 16)</t>
+  </si>
+  <si>
+    <t>Verander in de Draw method in de AnimatedSprite class het argument origin van Vector2.Zero naar this.pivot</t>
+  </si>
+  <si>
+    <t>Verander de grenswaarden van de omkeerpunten van de beetles zodat ze niet buiten het scherm komen en niet eerder omkeren.</t>
+  </si>
+  <si>
+    <t>Verander de grenswaarden van de omkeerpunten van de scorpions zodat ze niet buiten het scherm komen en niet eerder omkeren.</t>
+  </si>
+  <si>
+    <t>Maak een commit genaamd: "Draaipunt verandert van de Draw method in AnimatedSprite class"</t>
   </si>
 </sst>
 </file>
@@ -465,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -569,6 +589,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1274,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,10 +1737,392 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="10">
+        <v>41666</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="11">
+        <f>D8-C8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="11">
+        <f t="shared" ref="G9:G21" si="0">D9-C9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="1">
+        <v>6</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="1">
+        <v>7</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="1">
+        <v>8</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="1">
+        <v>9</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="1">
+        <v>10</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="1">
+        <v>11</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="1">
+        <v>12</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="1">
+        <v>13</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="1">
+        <v>14</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="1">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="11">
+        <f>D23-C23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="1">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="11">
+        <f t="shared" ref="G24:G27" si="1">D24-C24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="1">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="1">
+        <v>13</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="1">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="11">
+        <f>SUM(G8:G27)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,11 +2258,20 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="16">
-        <f>SUM(B7:B16)</f>
+      <c r="A17" s="15">
+        <v>5</v>
+      </c>
+      <c r="B17" s="5">
+        <f>'week 5'!G28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="16">
+        <f>SUM(B7:B17)</f>
         <v>0.7743055555555558</v>
       </c>
     </row>
@@ -1867,7 +2281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -2187,6 +2601,256 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="32">
+        <v>41666</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="D7" s="33">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="E7" s="31">
+        <v>1</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="33">
+        <f t="shared" ref="G7:G14" si="0">D7-C7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="D8" s="33">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E8" s="31">
+        <v>2</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="33">
+        <f t="shared" si="0"/>
+        <v>6.9444444444449749E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="D9" s="33">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="E9" s="31">
+        <v>3</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="33">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="D10" s="33">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="E10" s="31">
+        <v>4</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="33">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D11" s="33">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="E11" s="31">
+        <v>5</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="33">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222099E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="D12" s="33">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="E12" s="31">
+        <v>6</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="33">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="31">
+        <v>7</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="31">
+        <v>8</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="33">
+        <f>SUM(G7:G14)</f>
+        <v>6.9444444444444753E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" firstSheet="2" activeTab="13"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Week 47" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="118">
   <si>
     <t>Logboek</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>Maak een commit genaamd: "Draaipunt verandert van de Draw method in AnimatedSprite class"</t>
+  </si>
+  <si>
+    <t>Toets gemaakt</t>
   </si>
 </sst>
 </file>
@@ -1739,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,35 +1826,49 @@
       <c r="B8" s="10">
         <v>41666</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
+      <c r="C8" s="44">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D8" s="44">
+        <v>0.4201388888888889</v>
+      </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="17" t="s">
+        <v>117</v>
+      </c>
       <c r="G8" s="11">
         <f>D8-C8</f>
-        <v>0</v>
+        <v>5.555555555555558E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="C9" s="44">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="D9" s="44">
+        <v>0.4201388888888889</v>
+      </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="G9" s="11">
         <f t="shared" ref="G9:G21" si="0">D9-C9</f>
-        <v>0</v>
+        <v>1.388888888888884E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="44"/>
+      <c r="C10" s="44">
+        <v>0.4201388888888889</v>
+      </c>
       <c r="D10" s="44"/>
       <c r="E10" s="1">
         <v>3</v>
@@ -1859,7 +1876,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.4201388888888889</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2108,7 +2125,7 @@
       </c>
       <c r="G28" s="11">
         <f>SUM(G8:G27)</f>
-        <v>0</v>
+        <v>-0.36319444444444443</v>
       </c>
     </row>
   </sheetData>
@@ -2263,7 +2280,7 @@
       </c>
       <c r="B17" s="5">
         <f>'week 5'!G28</f>
-        <v>0</v>
+        <v>-0.36319444444444443</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2272,7 +2289,7 @@
       </c>
       <c r="B18" s="16">
         <f>SUM(B7:B17)</f>
-        <v>0.7743055555555558</v>
+        <v>0.41111111111111137</v>
       </c>
     </row>
   </sheetData>
@@ -2608,8 +2625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="119">
   <si>
     <t>Logboek</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>Toets gemaakt</t>
+  </si>
+  <si>
+    <t>rotation veranderd naar 0f in explorerwalkleft en right</t>
   </si>
 </sst>
 </file>
@@ -1743,7 +1746,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,34 +1866,44 @@
         <v>1.388888888888884E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12"/>
       <c r="C10" s="44">
         <v>0.4201388888888889</v>
       </c>
-      <c r="D10" s="44"/>
+      <c r="D10" s="44">
+        <v>0.4236111111111111</v>
+      </c>
       <c r="E10" s="1">
         <v>3</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="17" t="s">
+        <v>118</v>
+      </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
-        <v>-0.4201388888888889</v>
+        <v>3.4722222222222099E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
+      <c r="C11" s="44">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="D11" s="44">
+        <v>0.42638888888888887</v>
+      </c>
       <c r="E11" s="1">
         <v>4</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="G11" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444198E-4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2125,7 +2138,7 @@
       </c>
       <c r="G28" s="11">
         <f>SUM(G8:G27)</f>
-        <v>-0.36319444444444443</v>
+        <v>6.1111111111111116E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2280,7 +2293,7 @@
       </c>
       <c r="B17" s="5">
         <f>'week 5'!G28</f>
-        <v>-0.36319444444444443</v>
+        <v>6.1111111111111116E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2289,7 +2302,7 @@
       </c>
       <c r="B18" s="16">
         <f>SUM(B7:B17)</f>
-        <v>0.41111111111111137</v>
+        <v>0.83541666666666692</v>
       </c>
     </row>
   </sheetData>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="122">
   <si>
     <t>Logboek</t>
   </si>
@@ -384,6 +384,15 @@
   </si>
   <si>
     <t>rotation veranderd naar 0f in explorerwalkleft en right</t>
+  </si>
+  <si>
+    <t>Initialize method veranderd in de setter van de explorer</t>
+  </si>
+  <si>
+    <t>Nieuwe classe gemaakt ExplorerIdleWalk gemaakt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de ExplorerIdleWalk toegevoegd aan de explorerclass </t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1755,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,60 +1915,84 @@
         <v>6.9444444444444198E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
+      <c r="C12" s="44">
+        <v>0.4375</v>
+      </c>
+      <c r="D12" s="44">
+        <v>0.45208333333333334</v>
+      </c>
       <c r="E12" s="1">
         <v>5</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>119</v>
+      </c>
       <c r="G12" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.4583333333333337E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
+      <c r="C13" s="44">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="D13" s="44">
+        <v>0.4548611111111111</v>
+      </c>
       <c r="E13" s="1">
         <v>6</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>120</v>
+      </c>
       <c r="G13" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.7777777777777679E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
+      <c r="C14" s="44">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="D14" s="44">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="E14" s="1">
         <v>7</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>121</v>
+      </c>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4722222222222099E-3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
+      <c r="C15" s="44">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="D15" s="44">
+        <v>0.4597222222222222</v>
+      </c>
       <c r="E15" s="1">
         <v>8</v>
       </c>
-      <c r="F15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="G15" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444438647E-4</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2138,7 +2171,7 @@
       </c>
       <c r="G28" s="11">
         <f>SUM(G8:G27)</f>
-        <v>6.1111111111111116E-2</v>
+        <v>8.2638888888888817E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2293,7 +2326,7 @@
       </c>
       <c r="B17" s="5">
         <f>'week 5'!G28</f>
-        <v>6.1111111111111116E-2</v>
+        <v>8.2638888888888817E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2302,7 +2335,7 @@
       </c>
       <c r="B18" s="16">
         <f>SUM(B7:B17)</f>
-        <v>0.83541666666666692</v>
+        <v>0.85694444444444462</v>
       </c>
     </row>
   </sheetData>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="123">
   <si>
     <t>Logboek</t>
   </si>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t xml:space="preserve">de ExplorerIdleWalk toegevoegd aan de explorerclass </t>
+  </si>
+  <si>
+    <t>update method veranderd van explorerwalkdown en left en right.</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1758,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1995,32 +1998,44 @@
         <v>6.9444444444438647E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
+      <c r="C16" s="44">
+        <v>0.46875</v>
+      </c>
+      <c r="D16" s="44">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="E16" s="1">
         <v>9</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>122</v>
+      </c>
       <c r="G16" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666685E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
+      <c r="C17" s="44">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="D17" s="44">
+        <v>0.50208333333333333</v>
+      </c>
       <c r="E17" s="1">
         <v>10</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="G17" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444198E-4</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2171,7 +2186,7 @@
       </c>
       <c r="G28" s="11">
         <f>SUM(G8:G27)</f>
-        <v>8.2638888888888817E-2</v>
+        <v>9.3749999999999944E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2326,7 +2341,7 @@
       </c>
       <c r="B17" s="5">
         <f>'week 5'!G28</f>
-        <v>8.2638888888888817E-2</v>
+        <v>9.3749999999999944E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2335,7 +2350,7 @@
       </c>
       <c r="B18" s="16">
         <f>SUM(B7:B17)</f>
-        <v>0.85694444444444462</v>
+        <v>0.8680555555555558</v>
       </c>
     </row>
   </sheetData>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" firstSheet="3" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Week 47" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,15 @@
     <sheet name="week 5" sheetId="14" r:id="rId11"/>
     <sheet name="Totaal" sheetId="2" r:id="rId12"/>
     <sheet name="toets 1 GameScene" sheetId="13" r:id="rId13"/>
-    <sheet name="Sheet3" sheetId="16" r:id="rId14"/>
+    <sheet name="Toets 2" sheetId="16" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="134">
   <si>
     <t>Logboek</t>
   </si>
@@ -396,6 +397,39 @@
   </si>
   <si>
     <t>update method veranderd van explorerwalkdown en left en right.</t>
+  </si>
+  <si>
+    <t>Toets 3 States</t>
+  </si>
+  <si>
+    <t>Opdracht: zorg ervoor dat de explorer omhoog kan lopen met de juiste orientatie</t>
+  </si>
+  <si>
+    <t>Maak een copy van de ExplorerWalkDown class en hernoem deze naar ExplorerWalkUp</t>
+  </si>
+  <si>
+    <t>Verander in  ExplorerWalkUp.cs de class naam naar ExplorerWalkUp en verander ook de constructornaam naar ExplorerWalkUp</t>
+  </si>
+  <si>
+    <t>Maak in de Explorer class een field private ExplorerWalkUp walkUp, een get-property voor dit field</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zet in de constructor van de ExplorerWalkUp class een nieuw this.walkUp = new ExplorerWalkUp(this) .</t>
+  </si>
+  <si>
+    <t>Voeg aan de Update method van de ExplorerIdle class inputdetectioncode om de explorer in de walkUp toestand te kunnen brengen</t>
+  </si>
+  <si>
+    <t>Verander in de Update method van de  ExplorerWalkUp class this.explorer.Position zodat de explorer naar boven loopt.</t>
+  </si>
+  <si>
+    <t>Verander in de constructor van de ExplorerWalkUp class de rotation (denk aan -(float)Math.Pi/2, een draaiing tegen de klok in) en het effect om de orientatie goed te krijgen van je explorer. Terwijl hij omhoog loopt</t>
+  </si>
+  <si>
+    <t>Test of de explorer omhoog kan lopen met de juiste orientatie (gezicht omhoog)</t>
+  </si>
+  <si>
+    <t>Maak een commit -m: "Explorer kan omhoog lopen"</t>
   </si>
 </sst>
 </file>
@@ -503,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -610,6 +644,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1757,7 +1794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2926,6 +2963,290 @@
       <c r="E16" s="36"/>
       <c r="F16" s="39"/>
       <c r="G16" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="32">
+        <v>41666</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D7" s="33">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="E7" s="31">
+        <v>1</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="33">
+        <f t="shared" ref="G7:G15" si="0">D7-C7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="D8" s="33">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="E8" s="31">
+        <v>2</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="D9" s="33">
+        <v>0.57222222222222219</v>
+      </c>
+      <c r="E9" s="31">
+        <v>3</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="33">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D10" s="33">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="E10" s="31">
+        <v>4</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="33">
+        <f t="shared" si="0"/>
+        <v>2.083333333333437E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="D11" s="33">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="E11" s="31">
+        <v>5</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="33">
+        <f t="shared" si="0"/>
+        <v>6.9444444444433095E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="D12" s="33">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E12" s="31">
+        <v>6</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="33">
+        <f t="shared" si="0"/>
+        <v>6.94444444444553E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="D13" s="33">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="E13" s="31">
+        <v>7</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="33">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D14" s="33">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="E14" s="31">
+        <v>8</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="33">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="D15" s="33">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="E15" s="31">
+        <v>9</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="33">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="33">
+        <f>SUM(G7:G15)</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" firstSheet="3" activeTab="14"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" firstSheet="3" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Week 47" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,17 @@
     <sheet name="Week 4" sheetId="12" r:id="rId10"/>
     <sheet name="week 5" sheetId="14" r:id="rId11"/>
     <sheet name="Totaal" sheetId="2" r:id="rId12"/>
-    <sheet name="toets 1 GameScene" sheetId="13" r:id="rId13"/>
+    <sheet name="Toets 1" sheetId="13" r:id="rId13"/>
     <sheet name="Toets 2" sheetId="16" r:id="rId14"/>
-    <sheet name="Sheet1" sheetId="17" r:id="rId15"/>
+    <sheet name="Toets 3" sheetId="17" r:id="rId15"/>
+    <sheet name="Toets 4" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="140">
   <si>
     <t>Logboek</t>
   </si>
@@ -430,6 +431,24 @@
   </si>
   <si>
     <t>Maak een commit -m: "Explorer kan omhoog lopen"</t>
+  </si>
+  <si>
+    <t>Toets 4 States</t>
+  </si>
+  <si>
+    <t>Opdracht: programmeer dat de explorer in de toestand ExplorerWalkUp, niet naar boven uit het scherm kan lopen</t>
+  </si>
+  <si>
+    <t>Verander de velocity (aftrekken van de Position) en de rotation(-(float)Math.PI/2) in de collisiondetection method met de bovenkant van het scherm die staat in de Update method van de ExplorerWalkUp class.</t>
+  </si>
+  <si>
+    <t>Voeg if(Input.EdgeDetectKeyUp(Keys.Up){} code toe in de Update method van de ExplorerIdleWalk class om de explorer in de ExplorerIdle toestand te krijgen. Verander eventueel rotation en effect voor de juiste orientatie</t>
+  </si>
+  <si>
+    <t>Test of de explorer niet meer naar boven uit het scherm kan lopen.</t>
+  </si>
+  <si>
+    <t>Maak een commit -m "Explorer kan niet meer uit het scherm lopen"</t>
   </si>
 </sst>
 </file>
@@ -2973,7 +2992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -3247,6 +3266,248 @@
       <c r="E17" s="36"/>
       <c r="F17" s="39"/>
       <c r="G17" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="32">
+        <v>41666</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="D7" s="33">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="E7" s="31">
+        <v>1</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="33">
+        <f t="shared" ref="G7:G14" si="0">D7-C7</f>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D8" s="33">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="E8" s="31">
+        <v>2</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="33">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="D9" s="33">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="E9" s="31">
+        <v>3</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33">
+        <f t="shared" ref="C8:C14" si="1">D9+TIME(0,1,0)</f>
+        <v>0.59861111111111109</v>
+      </c>
+      <c r="D10" s="33">
+        <f t="shared" ref="D7:D14" si="2">C10+TIME(0,1,0)</f>
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="E10" s="31">
+        <v>4</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="33">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="31">
+        <v>5</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="31">
+        <v>6</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="31">
+        <v>7</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="31">
+        <v>8</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="33">
+        <f>SUM(G7:G14)</f>
+        <v>2.0833333333333259E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" firstSheet="3" activeTab="15"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Week 47" sheetId="1" r:id="rId1"/>
@@ -18,18 +18,19 @@
     <sheet name="Week 3" sheetId="11" r:id="rId9"/>
     <sheet name="Week 4" sheetId="12" r:id="rId10"/>
     <sheet name="week 5" sheetId="14" r:id="rId11"/>
-    <sheet name="Totaal" sheetId="2" r:id="rId12"/>
-    <sheet name="Toets 1" sheetId="13" r:id="rId13"/>
-    <sheet name="Toets 2" sheetId="16" r:id="rId14"/>
-    <sheet name="Toets 3" sheetId="17" r:id="rId15"/>
-    <sheet name="Toets 4" sheetId="18" r:id="rId16"/>
+    <sheet name="week 6" sheetId="19" r:id="rId12"/>
+    <sheet name="Totaal" sheetId="2" r:id="rId13"/>
+    <sheet name="Toets 1" sheetId="13" r:id="rId14"/>
+    <sheet name="Toets 2" sheetId="16" r:id="rId15"/>
+    <sheet name="Toets 3" sheetId="17" r:id="rId16"/>
+    <sheet name="Toets 4" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="145">
   <si>
     <t>Logboek</t>
   </si>
@@ -449,6 +450,21 @@
   </si>
   <si>
     <t>Maak een commit -m "Explorer kan niet meer uit het scherm lopen"</t>
+  </si>
+  <si>
+    <t>game opgestart, format logboek gewijzigd</t>
+  </si>
+  <si>
+    <t>nieuwe textbestand gemaakt in content</t>
+  </si>
+  <si>
+    <t>de waarde x 20 en y 15 ingevoerd met x</t>
+  </si>
+  <si>
+    <t>nieuwe folder gemaakt level en als nieuwe classe</t>
+  </si>
+  <si>
+    <t>In de levelclass nieuwe fields gemaakt en properties en de constructor gemaakt</t>
   </si>
 </sst>
 </file>
@@ -2253,6 +2269,424 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="10">
+        <v>41666</v>
+      </c>
+      <c r="C8" s="44">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="D8" s="44">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="11">
+        <f>D8-C8</f>
+        <v>3.4722222222221544E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="44">
+        <v>0.375</v>
+      </c>
+      <c r="D9" s="44">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" ref="G9:G21" si="0">D9-C9</f>
+        <v>5.5555555555555358E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="44">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="D10" s="44">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="44">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="D11" s="44">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333814E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="44">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="D12" s="44">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
+        <v>6.9444444444438647E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="44">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="D13" s="44">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="0"/>
+        <v>6.2500000000000333E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="1">
+        <v>7</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="1">
+        <v>8</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="1">
+        <v>9</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="1">
+        <v>10</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="1">
+        <v>11</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="1">
+        <v>12</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="1">
+        <v>13</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="1">
+        <v>14</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="1">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="11">
+        <f>D23-C23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="1">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="11">
+        <f t="shared" ref="G24:G27" si="1">D24-C24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="1">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="1">
+        <v>13</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="1">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="11">
+        <f>SUM(G8:G27)</f>
+        <v>1.9444444444444375E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -2415,7 +2849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -2738,7 +3172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -2988,7 +3422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -3272,11 +3706,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -3412,11 +3846,11 @@
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33">
-        <f t="shared" ref="C8:C14" si="1">D9+TIME(0,1,0)</f>
+        <f t="shared" ref="C10" si="1">D9+TIME(0,1,0)</f>
         <v>0.59861111111111109</v>
       </c>
       <c r="D10" s="33">
-        <f t="shared" ref="D7:D14" si="2">C10+TIME(0,1,0)</f>
+        <f t="shared" ref="D10" si="2">C10+TIME(0,1,0)</f>
         <v>0.59930555555555554</v>
       </c>
       <c r="E10" s="31">
